--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-SpaOnline.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-SpaOnline.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsancheg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominioEnriquecido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A04EE8F-DC98-49D4-A517-C62B4662EBB5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
-    <sheet name="Objeto Dominio 1" sheetId="66" r:id="rId3"/>
-    <sheet name="Objeto Dominio 2" sheetId="24" r:id="rId4"/>
-    <sheet name="Objeto Dominio N" sheetId="68" r:id="rId5"/>
+    <sheet name="SpaOnline" sheetId="66" r:id="rId3"/>
+    <sheet name="TipoIdentificador" sheetId="69" r:id="rId4"/>
+    <sheet name="Trabajador" sheetId="70" r:id="rId5"/>
+    <sheet name="Administrador" sheetId="71" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,8 +43,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={35924711-B316-4CD3-937E-3986A3B82A73}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{35924711-B316-4CD3-937E-3986A3B82A73}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Propio: Es parte del contexto actual
+Impropios: que no hacen parte del contexto
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="82">
   <si>
     <t>Nombre</t>
   </si>
@@ -51,24 +72,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Objeto Dominio 1</t>
-  </si>
-  <si>
-    <t>Descripción en términos del negocio del objeto de dominio 1</t>
-  </si>
-  <si>
-    <t>Objeto Dominio 2</t>
-  </si>
-  <si>
-    <t>Descripción en términos del negocio del objeto de dominio 2</t>
-  </si>
-  <si>
-    <t>Objeto Dominio N</t>
-  </si>
-  <si>
-    <t>Descripción en términos del negocio del objeto de dominio N</t>
-  </si>
-  <si>
     <t>&lt;-Volver al inicio</t>
   </si>
   <si>
@@ -172,13 +175,148 @@
   </si>
   <si>
     <t>Reponsabilidad 4</t>
+  </si>
+  <si>
+    <t>TipoObjetoDominio</t>
+  </si>
+  <si>
+    <t>Contextro</t>
+  </si>
+  <si>
+    <t>SpaOnline</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion del personal que tiene el Spa</t>
+  </si>
+  <si>
+    <t>Propio</t>
+  </si>
+  <si>
+    <t>TipoIdentificador</t>
+  </si>
+  <si>
+    <t>Trabajador</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion del tipo identificacion</t>
+  </si>
+  <si>
+    <t>Objeto de domino que contiene la informacion de los trabajadores de cada Spa</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion del administrador de la empresa</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>NumericoEntero</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Alfanumerico</t>
+  </si>
+  <si>
+    <t>Solo letras (con y sin tilde) con espacios</t>
+  </si>
+  <si>
+    <t>No tiene numeros</t>
+  </si>
+  <si>
+    <t>NumeroIdentificacion</t>
+  </si>
+  <si>
+    <t>No tiene letras</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el numero que identifica a la empresa o en este caso el Spa ante el gobierno</t>
+  </si>
+  <si>
+    <t>Nombre Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esta combinación identifica el nombre el spa con su identificacion ante el gobierno con el tipo de identificacion para asegurar que no se repita </t>
+  </si>
+  <si>
+    <t>Nombre - Numero identificacion- TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>NombreTipoIdentificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta conbinacion unica registra los tipos de identificaciones tributarias que se tiene en un pais </t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada Spa</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un Spa</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada Trabajador</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un Trabajor</t>
+  </si>
+  <si>
+    <t>Trabajadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinacion unica que identifica los trabajadores que se tienen en un Spa  </t>
+  </si>
+  <si>
+    <t>Numero identificacion</t>
+  </si>
+  <si>
+    <t>Solo Numeros, sin caracteres especiales</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador del trabajador</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributo que contiene el nombre de usuario del trabajador </t>
+  </si>
+  <si>
+    <t>Nombre - Usuario</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada Administrador</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un Administrador</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador del Administrador</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre de usuario del Administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinacion unica que identifica al Administrador que se tienen en un Spa  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +370,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -467,7 +611,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -614,20 +758,47 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,47 +836,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -732,10 +870,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341753</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07043857-A5BF-F1A4-D50E-900276B38421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="112058" y="0"/>
+          <a:ext cx="7849695" cy="2915057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jhonatan Arley Gomez Gomez" id="{8D36EC6E-DC8A-4A1E-8398-DEC1D3E1815B}" userId="S::jhonatan.gomez@wiga.io::6eb4563c-22ba-4bd2-8fe7-ce110aefa2fc" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -773,7 +966,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -879,7 +1072,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1021,95 +1214,148 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2024-03-08T22:51:07.46" personId="{8D36EC6E-DC8A-4A1E-8398-DEC1D3E1815B}" id="{35924711-B316-4CD3-937E-3986A3B82A73}">
+    <text xml:space="preserve">Propio: Es parte del contexto actual
+Impropios: que no hacen parte del contexto
+</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1">
-      <c r="A4" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>7</v>
+      <c r="C1" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1135,445 +1381,493 @@
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="51" t="str">
+        <f>'Listado Objetos de Dominio'!$A$2</f>
+        <v>SpaOnline</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="52" t="str">
+        <f>'Listado Objetos de Dominio'!$B$2</f>
+        <v>Objeto de dominio que contiene la informacion del personal que tiene el Spa</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!$A$2</f>
-        <v>Objeto Dominio 1</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="75" t="str">
-        <f>'Listado Objetos de Dominio'!$B$2</f>
-        <v>Descripción en términos del negocio del objeto de dominio 1</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
+        <f>A15</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
         <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
         <f>A18</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A19</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
       <c r="S5" s="28"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
+      <c r="J6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
       <c r="S6" s="28"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="23"/>
       <c r="S7" s="28"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="76" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="17" t="s">
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="39" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67" t="s">
+      <c r="J14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67" t="s">
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67" t="s">
+      <c r="P14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67" t="s">
+      <c r="R14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67" t="s">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="80"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="19" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="19" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
+    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1581,15 +1875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A83171-B2D1-4480-8615-12FC78E34935}">
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1615,403 +1908,981 @@
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="51" t="str">
+        <f>'Listado Objetos de Dominio'!$A$3</f>
+        <v>TipoIdentificador</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="52" t="str">
+        <f>'Listado Objetos de Dominio'!$B$3</f>
+        <v>Objeto de dominio que contiene la informacion del tipo identificacion</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!$A$3</f>
-        <v>Objeto Dominio 2</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="75" t="str">
-        <f>'Listado Objetos de Dominio'!$B$3</f>
-        <v>Descripción en términos del negocio del objeto de dominio 2</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
+        <f>A14</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A15</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
         <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A19</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
       <c r="S5" s="28"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
+      <c r="J6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
       <c r="S6" s="28"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="60"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="26"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{147F5AB5-5A33-4AF7-A998-7229C7078671}"/>
+    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{5B6AF10D-0146-44CB-ACAD-7C49998C5FF1}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{D804DBBF-4491-432F-9BFC-B32224946441}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{31E4250D-1C2A-463E-AA5D-593D1138D3CE}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{EDF31A75-3905-43F2-825F-85578DECBFCC}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{70FF476F-8D73-410E-B738-88E0987C4321}"/>
+    <hyperlink ref="A14:B14" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{C7E87DDB-536D-483A-8A86-393EAB854911}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{D61D6A3B-5E35-4B23-AC6C-B7C7C0D325BD}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{6C00471A-6DF4-4604-BEC8-514D5AB1ABF6}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{11940535-EE1B-4EAD-BA5F-ADB6EAB37DC4}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{E4E3B751-EF64-49AD-8AC6-6DC06463A146}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BAA816-EEA1-406C-AD3E-AB3181315244}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="51" t="str">
+        <f>'Listado Objetos de Dominio'!$A$4</f>
+        <v>Trabajador</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="52" t="str">
+        <f>'Listado Objetos de Dominio'!$B$4</f>
+        <v>Objeto de domino que contiene la informacion de los trabajadores de cada Spa</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="37" t="str">
+        <f>A16</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A17</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f>A18</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A19</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="23"/>
       <c r="S7" s="28"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="23"/>
       <c r="S8" s="28"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1"/>
-    <row r="10" spans="1:20">
-      <c r="A10" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-    </row>
-    <row r="11" spans="1:20">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="60"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="79" t="s">
+      <c r="H15" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="80"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P15" s="19" t="s">
         <v>1</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="46"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -2044,31 +2915,32 @@
     <mergeCell ref="O14:P14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D7938811-8E7B-420F-A0EF-53CF1B69AD9E}"/>
+    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{08FCD92C-0E27-465C-8699-23CE54270718}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{23CE0A58-9008-45B5-80B8-FE3BB8DC5433}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{59ABD855-2C46-42E7-AE11-FB8ABD082770}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{5F837DB1-A29E-472E-9E48-0EC8D6A882A2}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{B3DE210C-2F20-48E3-8E90-2034FACE5F37}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{938C6F6A-8294-43D1-88DC-469C5EC30613}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{AB483EF2-6D2B-4A06-BA63-AEDFE14C876E}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{FC0DDDF4-DA4B-4B60-B4C9-CBAD5708C64D}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{5451729F-4F64-404B-AD08-FB60F4E326FA}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{49429164-6B7B-4EF1-B3B6-189B2AAA9503}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F35C748-18EE-4240-89F1-EFB5F1AB8A3C}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2077,7 +2949,7 @@
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2094,117 +2966,117 @@
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="51" t="str">
+        <f>'Listado Objetos de Dominio'!$A$5</f>
+        <v>Administrador</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="52" t="str">
+        <f>'Listado Objetos de Dominio'!$B$5</f>
+        <v>Objeto de dominio que contiene la informacion del administrador de la empresa</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!$A$4</f>
-        <v>Objeto Dominio N</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="75" t="str">
-        <f>'Listado Objetos de Dominio'!$B$4</f>
-        <v>Descripción en términos del negocio del objeto de dominio N</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>1</v>
@@ -2226,272 +3098,362 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
       <c r="S5" s="28"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
+      <c r="J6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
       <c r="S6" s="28"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="23"/>
       <c r="S7" s="28"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="23"/>
       <c r="S8" s="28"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1"/>
-    <row r="10" spans="1:20">
-      <c r="A10" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-    </row>
-    <row r="11" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="60"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="39" customHeight="1" thickBot="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1"/>
-    <row r="14" spans="1:20">
-      <c r="A14" s="79" t="s">
+      <c r="H15" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="80"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P15" s="19" t="s">
         <v>1</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="46"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -2499,49 +3461,64 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{50DDCE94-7543-408D-A3E3-6B36315BEC2F}"/>
+    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{3FDE9BE6-05B2-4883-9F1A-04165BBDEDDB}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{AB69CFD2-B336-4177-B903-F81B2B8350B3}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{88601C3F-CCAD-4CC4-AC91-E48CF143E80F}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{48DAB151-9BDC-40CD-AEDD-FEC21C624ECB}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{78BEE703-01DB-468D-92E8-EA11C0615FFC}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{6B30FBFD-6CB1-4CC0-992C-544AB4FE62DE}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{0731E5CC-0C5D-446D-B55D-2D24EB11EC8A}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{DDB05DDF-D172-405E-97C5-7088E9B462ED}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A8B1B7C6-67D6-4519-A002-9941A0DEC2E3}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{A01D6E27-CC15-4A76-BCD2-60478A1B2211}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -2685,31 +3662,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-SpaOnline.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-SpaOnline.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominioEnriquecido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A04EE8F-DC98-49D4-A517-C62B4662EBB5}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C2A064-8487-4FC6-8F39-A9BA019CCC08}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
     <sheet name="SpaOnline" sheetId="66" r:id="rId3"/>
     <sheet name="TipoIdentificador" sheetId="69" r:id="rId4"/>
-    <sheet name="Trabajador" sheetId="70" r:id="rId5"/>
-    <sheet name="Administrador" sheetId="71" r:id="rId6"/>
+    <sheet name="Administrador" sheetId="71" r:id="rId5"/>
+    <sheet name="Trabajador" sheetId="70" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$2</definedName>
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,12 +370,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -758,6 +752,69 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -779,71 +836,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1257,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
@@ -1271,21 +1265,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="50" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="51" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1299,7 +1293,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -1313,7 +1307,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -1327,7 +1321,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1351,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -1382,70 +1376,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="72" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>SpaOnline</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="73" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que contiene la informacion del personal que tiene el Spa</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1644,11 +1638,11 @@
       <c r="T7" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -1668,49 +1662,49 @@
       <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57" t="s">
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57" t="s">
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57" t="s">
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="60"/>
+      <c r="R13" s="66"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -1723,12 +1717,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -1743,88 +1737,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="46"/>
       <c r="H16" s="44"/>
       <c r="I16" s="45"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="42"/>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="48"/>
       <c r="H18" s="49"/>
       <c r="I18" s="47"/>
       <c r="J18" s="48"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
@@ -1832,6 +1826,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
@@ -1841,20 +1849,6 @@
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1909,70 +1903,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="72" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>TipoIdentificador</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="73" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que contiene la informacion del tipo identificacion</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2130,11 +2124,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -2159,44 +2153,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57" t="s">
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57" t="s">
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="60"/>
+      <c r="R12" s="66"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -2209,12 +2203,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -2229,88 +2223,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="46"/>
       <c r="H15" s="44"/>
       <c r="I15" s="45"/>
       <c r="J15" s="39"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
       <c r="O15" s="23"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="27"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
       <c r="J16" s="43"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
       <c r="O16" s="28"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
       <c r="I17" s="47"/>
       <c r="J17" s="48"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
@@ -2318,17 +2312,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="K15:N15"/>
@@ -2341,6 +2324,17 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{147F5AB5-5A33-4AF7-A998-7229C7078671}"/>
@@ -2361,6 +2355,577 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F35C748-18EE-4240-89F1-EFB5F1AB8A3C}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="72" t="str">
+        <f>'Listado Objetos de Dominio'!$A$5</f>
+        <v>Administrador</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="73" t="str">
+        <f>'Listado Objetos de Dominio'!$B$5</f>
+        <v>Objeto de dominio que contiene la informacion del administrador de la empresa</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="37" t="str">
+        <f>A16</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A17</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f>A18</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A19</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="66"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="26"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{50DDCE94-7543-408D-A3E3-6B36315BEC2F}"/>
+    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{3FDE9BE6-05B2-4883-9F1A-04165BBDEDDB}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{AB69CFD2-B336-4177-B903-F81B2B8350B3}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{88601C3F-CCAD-4CC4-AC91-E48CF143E80F}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{48DAB151-9BDC-40CD-AEDD-FEC21C624ECB}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{78BEE703-01DB-468D-92E8-EA11C0615FFC}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{6B30FBFD-6CB1-4CC0-992C-544AB4FE62DE}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{0731E5CC-0C5D-446D-B55D-2D24EB11EC8A}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{DDB05DDF-D172-405E-97C5-7088E9B462ED}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A8B1B7C6-67D6-4519-A002-9941A0DEC2E3}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{A01D6E27-CC15-4A76-BCD2-60478A1B2211}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BAA816-EEA1-406C-AD3E-AB3181315244}">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -2395,70 +2960,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="72" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Trabajador</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="73" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de domino que contiene la informacion de los trabajadores de cada Spa</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2702,11 +3267,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -2731,44 +3296,44 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57" t="s">
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57" t="s">
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57" t="s">
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="60"/>
+      <c r="R14" s="66"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -2781,12 +3346,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -2801,88 +3366,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="46"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -2890,17 +3455,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -2913,6 +3467,17 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D7938811-8E7B-420F-A0EF-53CF1B69AD9E}"/>
@@ -2932,590 +3497,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F35C748-18EE-4240-89F1-EFB5F1AB8A3C}">
-  <dimension ref="A1:T19"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="51" t="str">
-        <f>'Listado Objetos de Dominio'!$A$5</f>
-        <v>Administrador</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="52" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v>Objeto de dominio que contiene la informacion del administrador de la empresa</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="37" t="str">
-        <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>100</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="60"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{50DDCE94-7543-408D-A3E3-6B36315BEC2F}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{3FDE9BE6-05B2-4883-9F1A-04165BBDEDDB}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{AB69CFD2-B336-4177-B903-F81B2B8350B3}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{88601C3F-CCAD-4CC4-AC91-E48CF143E80F}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{48DAB151-9BDC-40CD-AEDD-FEC21C624ECB}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{78BEE703-01DB-468D-92E8-EA11C0615FFC}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{6B30FBFD-6CB1-4CC0-992C-544AB4FE62DE}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{0731E5CC-0C5D-446D-B55D-2D24EB11EC8A}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{DDB05DDF-D172-405E-97C5-7088E9B462ED}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A8B1B7C6-67D6-4519-A002-9941A0DEC2E3}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{A01D6E27-CC15-4A76-BCD2-60478A1B2211}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3663,18 +3657,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
